--- a/reports/bounced.xlsx
+++ b/reports/bounced.xlsx
@@ -1,37 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrade\Downloads\cleanmailer-main\cleanmailer-main\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA17F16-F093-4C89-820D-D657EC5A2AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +63,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,173 +387,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>altunhakan47@hotmail.com</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>系统退信/The email is returned</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>alpergundes@angoracarpet.com</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UNKNOWN</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Undelivered Mail Returned to Sender</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/reports/bounced.xlsx
+++ b/reports/bounced.xlsx
@@ -1,54 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mrade\Downloads\cleanmailer-main\cleanmailer-main\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA17F16-F093-4C89-820D-D657EC5A2AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>subject</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,21 +420,2081 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>info@bcsmetal.com</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>info@alanarfidan.com.tr</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>hkutlu@stefanel.com.tr</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Notification: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>gunasyersel@outlook.com</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>behkor72@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>aslihan@parkpalet.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>aliriza@ozgurmobilya.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>admin@kexingtoner.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>behkor72@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>aslihan@parkpalet.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>aliriza@ozgurmobilya.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>info@bcsmetal.com.tr</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>info@amcteknik.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ibrahim@bereketpirinc.com.tr</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>hustundag@cablemar.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>hturhan@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>hikmetkosar@pinkalsoblue.com</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>hasozgen@hasozgen.com</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>failure notice</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>atakan@direct-sourcing.co.uk</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>asahan@sanko.com.tr</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>anil.atay@fahe.com.tr</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>coskar55@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>contact@prb.fr</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>claudiacorreia@antoniorosa.pt</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>cetnpolatoguzhan@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>failure notice</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>atakan@direct-sourcing.co.uk</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>asahan@sanko.com.tr</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>anil.atay@fahe.com.tr</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>hasraf@hasraf.com</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hamza@krctex.com</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gurteks@gurteks.com.tr</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>guliz_422@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ayazpazarlama@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>aliseyran@emmad.org.tr</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>alicankasim@arkotomotiv.com</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>ahmet.canbay44@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>contact@lacoste-tr.com</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>account@teksmar.com</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>commecial@cobaltix.fr</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>cimko@cimkocimento.com.tr</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>cherif.ramsis@ncgc-egypt.com</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>calik@calikoglu.com.tr</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>br2779@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>betty@megain.com</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>ayazpazarlama@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>aliseyran@emmad.org.tr</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>alicankasim@arkotomotiv.com</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>ahmet.canbay44@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>account@teksmar.com</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>hasanhalici55@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>happy2@happygocs.com</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>hamza@tente.com</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>hakan@toyopan.com</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>guner@noalook.com</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>gucel@gucel.com</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>berrin.demir@rafitekstil.com</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>andy@nbkailan.com</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>altegro@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>alhasan22hsr@gmail.com</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>akim@akimplastik.com</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>admin@rongshengsteel.com</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>accounting_myhome@vip.163.com</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>863726399@chinaxuyin.com</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>caner.c@textile-academy.com</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>bulent.nezir@arcelormittal.com.tr</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>系统退信/Mail Delivery Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>bettyli@hfintl.com</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>berrin.demir@rafitekstil.com</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>andy@nbkailan.com</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>altegro@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>alhasan22hsr@gmail.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>akim@akimplastik.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>accounting_myhome@vip.163.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Mail delivery failed: returning message to sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>系统退信/The email is returned</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>ahmet@onestophalal.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>akinal@akinal.com.tr</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Delivery status notification, MTA-BLOCKED</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>altunhakan47@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>alpergundes@angoracarpet.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>metinacar@acarsan.com.tr</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Delivery Status Notification (Failure)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>goksen@goksenhelva.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>altunhakan47@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>系统退信/The email is returned</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>alpergundes@angoracarpet.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>muhasebe_elif@hotmail.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Undeliverable: Potential Business Collaboration Inquiry</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>UNKNOWN</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Undelivered Mail Returned to Sender</t>
+        </is>
       </c>
     </row>
   </sheetData>
